--- a/GATEWAY/A1#111#LAZIOCREAXX/LazioCrea/SISMED/4.0_RC_0000/report-checklist.xlsx
+++ b/GATEWAY/A1#111#LAZIOCREAXX/LazioCrea/SISMED/4.0_RC_0000/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriele.cenci\Desktop\FSE\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriele.cenci\Desktop\FSE\sismed-accreditamento-fse\Report\2403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1885107-27F4-4BA7-A59D-AEBBF532C409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFFA2F64-71CD-4E65-AE03-3F8E1DC80B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="446">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>NOME FORNITORE:</t>
-  </si>
-  <si>
-    <t>LAZIOCREA</t>
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
@@ -1742,6 +1739,12 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAZIOCREA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore viene riportato all'utente che puo' riprovare operazione di invio </t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3872,13 +3875,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="P23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K190" sqref="K190"/>
+      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3928,7 +3932,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>444</v>
       </c>
       <c r="D2" s="4"/>
       <c r="F2" s="17"/>
@@ -3952,11 +3956,11 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="17"/>
@@ -3982,7 +3986,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -4009,7 +4013,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="17"/>
@@ -4099,99 +4103,97 @@
     </row>
     <row r="9" spans="1:23" s="28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="F9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="G9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="I9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="K9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="L9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="N9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="O9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="P9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="Q9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="R9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="S9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="T9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="U9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="V9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="25" t="s">
+      <c r="W9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="W9" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>50</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="34"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="35" t="s">
-        <v>270</v>
-      </c>
+      <c r="K10" s="35"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -4204,33 +4206,31 @@
       <c r="U10" s="36"/>
       <c r="V10" s="37"/>
       <c r="W10" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>28</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>53</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="40"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="K11" s="35"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
@@ -4243,33 +4243,31 @@
       <c r="U11" s="36"/>
       <c r="V11" s="37"/>
       <c r="W11" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>29</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="40"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
@@ -4282,33 +4280,31 @@
       <c r="U12" s="36"/>
       <c r="V12" s="37"/>
       <c r="W12" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>30</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>58</v>
-      </c>
       <c r="E13" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="40"/>
       <c r="J13" s="35"/>
-      <c r="K13" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="K13" s="35"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
@@ -4321,33 +4317,31 @@
       <c r="U13" s="36"/>
       <c r="V13" s="37"/>
       <c r="W13" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>31</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>60</v>
-      </c>
       <c r="E14" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="40"/>
       <c r="J14" s="35"/>
-      <c r="K14" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
@@ -4360,7 +4354,7 @@
       <c r="U14" s="36"/>
       <c r="V14" s="37"/>
       <c r="W14" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="50" customFormat="1" ht="145" x14ac:dyDescent="0.35">
@@ -4368,26 +4362,26 @@
         <v>32</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="E15" s="43" t="s">
         <v>62</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>63</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="45"/>
       <c r="H15" s="44"/>
       <c r="I15" s="46"/>
       <c r="J15" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="K15" s="47" t="s">
-        <v>65</v>
       </c>
       <c r="L15" s="47"/>
       <c r="M15" s="47"/>
@@ -4401,35 +4395,31 @@
       <c r="U15" s="48"/>
       <c r="V15" s="49"/>
       <c r="W15" s="47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>33</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>67</v>
-      </c>
       <c r="E16" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
@@ -4442,35 +4432,31 @@
       <c r="U16" s="36"/>
       <c r="V16" s="37"/>
       <c r="W16" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>34</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>69</v>
-      </c>
       <c r="E17" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
@@ -4483,35 +4469,31 @@
       <c r="U17" s="36"/>
       <c r="V17" s="37"/>
       <c r="W17" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>35</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
@@ -4524,35 +4506,31 @@
       <c r="U18" s="36"/>
       <c r="V18" s="37"/>
       <c r="W18" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>36</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D19" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>72</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>73</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -4565,35 +4543,31 @@
       <c r="U19" s="36"/>
       <c r="V19" s="37"/>
       <c r="W19" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <v>37</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
@@ -4606,35 +4580,31 @@
       <c r="U20" s="36"/>
       <c r="V20" s="37"/>
       <c r="W20" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31">
         <v>38</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
@@ -4647,35 +4617,31 @@
       <c r="U21" s="36"/>
       <c r="V21" s="37"/>
       <c r="W21" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31">
         <v>39</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
@@ -4688,7 +4654,7 @@
       <c r="U22" s="36"/>
       <c r="V22" s="37"/>
       <c r="W22" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="50" customFormat="1" ht="145" x14ac:dyDescent="0.35">
@@ -4696,26 +4662,26 @@
         <v>40</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="43" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>78</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="45"/>
       <c r="H23" s="44"/>
       <c r="I23" s="46"/>
       <c r="J23" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>65</v>
       </c>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
@@ -4729,35 +4695,31 @@
       <c r="U23" s="48"/>
       <c r="V23" s="49"/>
       <c r="W23" s="47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31">
         <v>41</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
@@ -4770,35 +4732,31 @@
       <c r="U24" s="36"/>
       <c r="V24" s="37"/>
       <c r="W24" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>42</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="35"/>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
@@ -4811,35 +4769,31 @@
       <c r="U25" s="36"/>
       <c r="V25" s="37"/>
       <c r="W25" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>43</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
@@ -4852,35 +4806,31 @@
       <c r="U26" s="36"/>
       <c r="V26" s="37"/>
       <c r="W26" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>44</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D27" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>82</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>83</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
@@ -4891,39 +4841,35 @@
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V27" s="37"/>
       <c r="W27" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>45</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
@@ -4934,39 +4880,35 @@
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V28" s="37"/>
       <c r="W28" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>46</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
@@ -4977,39 +4919,35 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V29" s="37"/>
       <c r="W29" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>47</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
@@ -5020,11 +4958,11 @@
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V30" s="37"/>
       <c r="W30" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="50" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -5032,82 +4970,82 @@
         <v>48</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="44"/>
       <c r="I31" s="46"/>
       <c r="J31" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K31" s="47"/>
       <c r="L31" s="47"/>
       <c r="M31" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N31" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O31" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="R31" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="S31" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="T31" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="P31" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q31" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="U31" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V31" s="49"/>
       <c r="W31" s="47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31">
         <v>49</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
@@ -5118,39 +5056,35 @@
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V32" s="37"/>
       <c r="W32" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>50</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
@@ -5161,39 +5095,35 @@
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V33" s="37"/>
       <c r="W33" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31">
         <v>51</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="40"/>
-      <c r="J34" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
@@ -5204,39 +5134,35 @@
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V34" s="37"/>
       <c r="W34" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31">
         <v>55</v>
       </c>
       <c r="B35" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D35" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K35" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
@@ -5249,35 +5175,31 @@
       <c r="U35" s="36"/>
       <c r="V35" s="37"/>
       <c r="W35" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31">
         <v>56</v>
       </c>
       <c r="B36" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D36" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K36" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
@@ -5290,35 +5212,31 @@
       <c r="U36" s="36"/>
       <c r="V36" s="37"/>
       <c r="W36" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31">
         <v>57</v>
       </c>
       <c r="B37" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D37" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K37" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
@@ -5331,35 +5249,31 @@
       <c r="U37" s="36"/>
       <c r="V37" s="37"/>
       <c r="W37" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31">
         <v>58</v>
       </c>
       <c r="B38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D38" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="32" t="s">
         <v>101</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>102</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K38" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
@@ -5372,35 +5286,31 @@
       <c r="U38" s="36"/>
       <c r="V38" s="37"/>
       <c r="W38" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31">
         <v>59</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D39" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="32" t="s">
         <v>103</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K39" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
@@ -5413,35 +5323,31 @@
       <c r="U39" s="36"/>
       <c r="V39" s="37"/>
       <c r="W39" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31">
         <v>60</v>
       </c>
       <c r="B40" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D40" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>105</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K40" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
@@ -5454,35 +5360,31 @@
       <c r="U40" s="36"/>
       <c r="V40" s="37"/>
       <c r="W40" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31">
         <v>61</v>
       </c>
       <c r="B41" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D41" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>107</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K41" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
@@ -5495,35 +5397,31 @@
       <c r="U41" s="36"/>
       <c r="V41" s="37"/>
       <c r="W41" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31">
         <v>62</v>
       </c>
       <c r="B42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D42" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="32" t="s">
         <v>109</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>110</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
@@ -5536,35 +5434,31 @@
       <c r="U42" s="36"/>
       <c r="V42" s="37"/>
       <c r="W42" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31">
         <v>64</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="32" t="s">
         <v>111</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>112</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
@@ -5577,35 +5471,31 @@
       <c r="U43" s="36"/>
       <c r="V43" s="37"/>
       <c r="W43" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31">
         <v>66</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="32" t="s">
         <v>113</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>114</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K44" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
@@ -5618,35 +5508,31 @@
       <c r="U44" s="36"/>
       <c r="V44" s="37"/>
       <c r="W44" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31">
         <v>67</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>115</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>116</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K45" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
@@ -5659,35 +5545,31 @@
       <c r="U45" s="36"/>
       <c r="V45" s="37"/>
       <c r="W45" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31">
         <v>68</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>117</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>118</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
@@ -5700,35 +5582,31 @@
       <c r="U46" s="36"/>
       <c r="V46" s="37"/>
       <c r="W46" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31">
         <v>69</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K47" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
@@ -5741,35 +5619,31 @@
       <c r="U47" s="36"/>
       <c r="V47" s="37"/>
       <c r="W47" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31">
         <v>70</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="32" t="s">
         <v>121</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>122</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
       <c r="H48" s="34"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K48" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
@@ -5782,35 +5656,31 @@
       <c r="U48" s="36"/>
       <c r="V48" s="37"/>
       <c r="W48" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31">
         <v>71</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>123</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
       <c r="H49" s="34"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K49" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
       <c r="N49" s="35"/>
@@ -5823,35 +5693,31 @@
       <c r="U49" s="36"/>
       <c r="V49" s="37"/>
       <c r="W49" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31">
         <v>72</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
       <c r="H50" s="34"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K50" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
       <c r="L50" s="35"/>
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
@@ -5864,35 +5730,31 @@
       <c r="U50" s="36"/>
       <c r="V50" s="37"/>
       <c r="W50" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31">
         <v>73</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="32" t="s">
         <v>127</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
       <c r="H51" s="34"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K51" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
       <c r="L51" s="35"/>
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
@@ -5905,35 +5767,31 @@
       <c r="U51" s="36"/>
       <c r="V51" s="37"/>
       <c r="W51" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31">
         <v>74</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>130</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
       <c r="H52" s="34"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K52" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
@@ -5946,35 +5804,31 @@
       <c r="U52" s="36"/>
       <c r="V52" s="37"/>
       <c r="W52" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31">
         <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K53" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
       <c r="N53" s="35"/>
@@ -5987,35 +5841,31 @@
       <c r="U53" s="36"/>
       <c r="V53" s="37"/>
       <c r="W53" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31">
         <v>78</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="32" t="s">
         <v>133</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>134</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
       <c r="H54" s="34"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K54" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
       <c r="L54" s="35"/>
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
@@ -6028,35 +5878,31 @@
       <c r="U54" s="36"/>
       <c r="V54" s="37"/>
       <c r="W54" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31">
         <v>79</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="32" t="s">
         <v>135</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>136</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K55" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
       <c r="L55" s="35"/>
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
@@ -6069,35 +5915,31 @@
       <c r="U55" s="36"/>
       <c r="V55" s="37"/>
       <c r="W55" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31">
         <v>80</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K56" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
       <c r="L56" s="35"/>
       <c r="M56" s="35"/>
       <c r="N56" s="35"/>
@@ -6110,35 +5952,31 @@
       <c r="U56" s="36"/>
       <c r="V56" s="37"/>
       <c r="W56" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31">
         <v>81</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
       <c r="H57" s="34"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K57" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
@@ -6151,35 +5989,31 @@
       <c r="U57" s="36"/>
       <c r="V57" s="37"/>
       <c r="W57" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31">
         <v>82</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="32" t="s">
         <v>141</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>142</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K58" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
@@ -6192,35 +6026,31 @@
       <c r="U58" s="36"/>
       <c r="V58" s="37"/>
       <c r="W58" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31">
         <v>83</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>144</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K59" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
       <c r="L59" s="35"/>
       <c r="M59" s="35"/>
       <c r="N59" s="35"/>
@@ -6233,35 +6063,31 @@
       <c r="U59" s="36"/>
       <c r="V59" s="37"/>
       <c r="W59" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31">
         <v>84</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K60" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
       <c r="L60" s="35"/>
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
@@ -6274,35 +6100,31 @@
       <c r="U60" s="36"/>
       <c r="V60" s="37"/>
       <c r="W60" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31">
         <v>85</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>148</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K61" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
       <c r="L61" s="35"/>
       <c r="M61" s="35"/>
       <c r="N61" s="35"/>
@@ -6315,35 +6137,31 @@
       <c r="U61" s="36"/>
       <c r="V61" s="37"/>
       <c r="W61" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31">
         <v>86</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K62" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
       <c r="L62" s="35"/>
       <c r="M62" s="35"/>
       <c r="N62" s="35"/>
@@ -6356,35 +6174,31 @@
       <c r="U62" s="36"/>
       <c r="V62" s="37"/>
       <c r="W62" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31">
         <v>87</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K63" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
       <c r="L63" s="35"/>
       <c r="M63" s="35"/>
       <c r="N63" s="35"/>
@@ -6397,35 +6211,31 @@
       <c r="U63" s="36"/>
       <c r="V63" s="37"/>
       <c r="W63" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="31">
         <v>88</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>154</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K64" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
       <c r="L64" s="35"/>
       <c r="M64" s="35"/>
       <c r="N64" s="35"/>
@@ -6438,35 +6248,31 @@
       <c r="U64" s="36"/>
       <c r="V64" s="37"/>
       <c r="W64" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="31">
         <v>89</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>156</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K65" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
       <c r="N65" s="35"/>
@@ -6479,35 +6285,31 @@
       <c r="U65" s="36"/>
       <c r="V65" s="37"/>
       <c r="W65" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="31">
         <v>90</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K66" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
@@ -6520,35 +6322,31 @@
       <c r="U66" s="36"/>
       <c r="V66" s="37"/>
       <c r="W66" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="31">
         <v>91</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>160</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K67" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
       <c r="L67" s="35"/>
       <c r="M67" s="35"/>
       <c r="N67" s="35"/>
@@ -6561,35 +6359,31 @@
       <c r="U67" s="36"/>
       <c r="V67" s="37"/>
       <c r="W67" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="31">
         <v>92</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D68" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="32" t="s">
         <v>161</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>162</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K68" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
@@ -6602,35 +6396,31 @@
       <c r="U68" s="36"/>
       <c r="V68" s="37"/>
       <c r="W68" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="31">
         <v>93</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="32" t="s">
         <v>163</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>164</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K69" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
       <c r="L69" s="35"/>
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
@@ -6643,35 +6433,31 @@
       <c r="U69" s="36"/>
       <c r="V69" s="37"/>
       <c r="W69" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="31">
         <v>95</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>166</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K70" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
       <c r="L70" s="35"/>
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
@@ -6684,35 +6470,31 @@
       <c r="U70" s="36"/>
       <c r="V70" s="37"/>
       <c r="W70" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="31">
         <v>97</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="32" t="s">
         <v>167</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>168</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K71" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
       <c r="L71" s="35"/>
       <c r="M71" s="35"/>
       <c r="N71" s="35"/>
@@ -6725,35 +6507,31 @@
       <c r="U71" s="36"/>
       <c r="V71" s="37"/>
       <c r="W71" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="31">
         <v>98</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="32" t="s">
         <v>169</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>170</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K72" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
       <c r="L72" s="35"/>
       <c r="M72" s="35"/>
       <c r="N72" s="35"/>
@@ -6766,35 +6544,31 @@
       <c r="U72" s="36"/>
       <c r="V72" s="37"/>
       <c r="W72" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="31">
         <v>99</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" s="32" t="s">
         <v>171</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>172</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K73" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
       <c r="L73" s="35"/>
       <c r="M73" s="35"/>
       <c r="N73" s="35"/>
@@ -6807,35 +6581,31 @@
       <c r="U73" s="36"/>
       <c r="V73" s="37"/>
       <c r="W73" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="31">
         <v>100</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="32" t="s">
         <v>173</v>
-      </c>
-      <c r="E74" s="32" t="s">
-        <v>174</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K74" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
       <c r="L74" s="35"/>
       <c r="M74" s="35"/>
       <c r="N74" s="35"/>
@@ -6848,35 +6618,31 @@
       <c r="U74" s="36"/>
       <c r="V74" s="37"/>
       <c r="W74" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="31">
         <v>101</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D75" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="32" t="s">
         <v>175</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>176</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K75" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
       <c r="L75" s="35"/>
       <c r="M75" s="35"/>
       <c r="N75" s="35"/>
@@ -6889,35 +6655,31 @@
       <c r="U75" s="36"/>
       <c r="V75" s="37"/>
       <c r="W75" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="31">
         <v>102</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D76" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>178</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K76" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
       <c r="L76" s="35"/>
       <c r="M76" s="35"/>
       <c r="N76" s="35"/>
@@ -6930,35 +6692,31 @@
       <c r="U76" s="36"/>
       <c r="V76" s="37"/>
       <c r="W76" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="31">
         <v>103</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K77" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
       <c r="L77" s="35"/>
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
@@ -6971,35 +6729,31 @@
       <c r="U77" s="36"/>
       <c r="V77" s="37"/>
       <c r="W77" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="31">
         <v>104</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D78" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>182</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K78" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
       <c r="L78" s="35"/>
       <c r="M78" s="35"/>
       <c r="N78" s="35"/>
@@ -7012,35 +6766,31 @@
       <c r="U78" s="36"/>
       <c r="V78" s="37"/>
       <c r="W78" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="31">
         <v>105</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" s="32" t="s">
         <v>183</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>184</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="34"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K79" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
       <c r="L79" s="35"/>
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
@@ -7053,35 +6803,31 @@
       <c r="U79" s="36"/>
       <c r="V79" s="37"/>
       <c r="W79" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="31">
         <v>106</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D80" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="32" t="s">
         <v>185</v>
-      </c>
-      <c r="E80" s="32" t="s">
-        <v>186</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K80" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
@@ -7094,35 +6840,31 @@
       <c r="U80" s="36"/>
       <c r="V80" s="37"/>
       <c r="W80" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="31">
         <v>108</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D81" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" s="32" t="s">
         <v>187</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>188</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
       <c r="H81" s="34"/>
       <c r="I81" s="40"/>
-      <c r="J81" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K81" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
       <c r="L81" s="35"/>
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
@@ -7135,35 +6877,31 @@
       <c r="U81" s="36"/>
       <c r="V81" s="37"/>
       <c r="W81" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="31">
         <v>110</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D82" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="32" t="s">
         <v>189</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>190</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
       <c r="I82" s="40"/>
-      <c r="J82" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K82" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
       <c r="L82" s="35"/>
       <c r="M82" s="35"/>
       <c r="N82" s="35"/>
@@ -7176,35 +6914,31 @@
       <c r="U82" s="36"/>
       <c r="V82" s="37"/>
       <c r="W82" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="31">
         <v>111</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D83" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E83" s="32" t="s">
         <v>191</v>
-      </c>
-      <c r="E83" s="32" t="s">
-        <v>192</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
       <c r="I83" s="40"/>
-      <c r="J83" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K83" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
       <c r="L83" s="35"/>
       <c r="M83" s="35"/>
       <c r="N83" s="35"/>
@@ -7217,35 +6951,31 @@
       <c r="U83" s="36"/>
       <c r="V83" s="37"/>
       <c r="W83" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="31">
         <v>112</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D84" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="32" t="s">
         <v>193</v>
-      </c>
-      <c r="E84" s="32" t="s">
-        <v>194</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K84" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
       <c r="L84" s="35"/>
       <c r="M84" s="35"/>
       <c r="N84" s="35"/>
@@ -7258,35 +6988,31 @@
       <c r="U84" s="36"/>
       <c r="V84" s="37"/>
       <c r="W84" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="31">
         <v>113</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D85" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E85" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="E85" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
       <c r="I85" s="40"/>
-      <c r="J85" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K85" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
       <c r="L85" s="35"/>
       <c r="M85" s="35"/>
       <c r="N85" s="35"/>
@@ -7299,35 +7025,31 @@
       <c r="U85" s="36"/>
       <c r="V85" s="37"/>
       <c r="W85" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="31">
         <v>114</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D86" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E86" s="32" t="s">
         <v>197</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>198</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
       <c r="I86" s="40"/>
-      <c r="J86" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K86" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
       <c r="L86" s="35"/>
       <c r="M86" s="35"/>
       <c r="N86" s="35"/>
@@ -7340,35 +7062,31 @@
       <c r="U86" s="36"/>
       <c r="V86" s="37"/>
       <c r="W86" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="31">
         <v>115</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D87" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
       <c r="I87" s="40"/>
-      <c r="J87" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K87" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
       <c r="L87" s="35"/>
       <c r="M87" s="35"/>
       <c r="N87" s="35"/>
@@ -7381,35 +7099,31 @@
       <c r="U87" s="36"/>
       <c r="V87" s="37"/>
       <c r="W87" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="31">
         <v>116</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D88" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" s="32" t="s">
         <v>201</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>202</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
       <c r="I88" s="40"/>
-      <c r="J88" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K88" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
       <c r="L88" s="35"/>
       <c r="M88" s="35"/>
       <c r="N88" s="35"/>
@@ -7422,35 +7136,31 @@
       <c r="U88" s="36"/>
       <c r="V88" s="37"/>
       <c r="W88" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="31">
         <v>117</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D89" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="32" t="s">
         <v>203</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>204</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
       <c r="H89" s="34"/>
       <c r="I89" s="40"/>
-      <c r="J89" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K89" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
       <c r="L89" s="35"/>
       <c r="M89" s="35"/>
       <c r="N89" s="35"/>
@@ -7463,35 +7173,31 @@
       <c r="U89" s="36"/>
       <c r="V89" s="37"/>
       <c r="W89" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="31">
         <v>118</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D90" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" s="32" t="s">
         <v>205</v>
-      </c>
-      <c r="E90" s="32" t="s">
-        <v>206</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
       <c r="I90" s="40"/>
-      <c r="J90" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K90" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
       <c r="L90" s="35"/>
       <c r="M90" s="35"/>
       <c r="N90" s="35"/>
@@ -7504,35 +7210,31 @@
       <c r="U90" s="36"/>
       <c r="V90" s="37"/>
       <c r="W90" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="31">
         <v>119</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D91" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="32" t="s">
         <v>207</v>
-      </c>
-      <c r="E91" s="32" t="s">
-        <v>208</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K91" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
       <c r="L91" s="35"/>
       <c r="M91" s="35"/>
       <c r="N91" s="35"/>
@@ -7545,35 +7247,31 @@
       <c r="U91" s="36"/>
       <c r="V91" s="37"/>
       <c r="W91" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="31">
         <v>120</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D92" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="32" t="s">
         <v>209</v>
-      </c>
-      <c r="E92" s="32" t="s">
-        <v>210</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
       <c r="I92" s="40"/>
-      <c r="J92" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K92" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
       <c r="L92" s="35"/>
       <c r="M92" s="35"/>
       <c r="N92" s="35"/>
@@ -7586,35 +7284,31 @@
       <c r="U92" s="36"/>
       <c r="V92" s="37"/>
       <c r="W92" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="31">
         <v>121</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D93" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E93" s="32" t="s">
         <v>211</v>
-      </c>
-      <c r="E93" s="32" t="s">
-        <v>212</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
       <c r="I93" s="40"/>
-      <c r="J93" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K93" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
       <c r="L93" s="35"/>
       <c r="M93" s="35"/>
       <c r="N93" s="35"/>
@@ -7627,35 +7321,31 @@
       <c r="U93" s="36"/>
       <c r="V93" s="37"/>
       <c r="W93" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="31">
         <v>123</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D94" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E94" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="E94" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
       <c r="H94" s="34"/>
       <c r="I94" s="40"/>
-      <c r="J94" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K94" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
       <c r="L94" s="35"/>
       <c r="M94" s="35"/>
       <c r="N94" s="35"/>
@@ -7668,35 +7358,31 @@
       <c r="U94" s="36"/>
       <c r="V94" s="37"/>
       <c r="W94" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="31">
         <v>125</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D95" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="E95" s="32" t="s">
-        <v>216</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
       <c r="I95" s="40"/>
-      <c r="J95" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K95" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
       <c r="L95" s="35"/>
       <c r="M95" s="35"/>
       <c r="N95" s="35"/>
@@ -7709,35 +7395,31 @@
       <c r="U95" s="36"/>
       <c r="V95" s="37"/>
       <c r="W95" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="31">
         <v>126</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D96" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E96" s="32" t="s">
         <v>217</v>
-      </c>
-      <c r="E96" s="32" t="s">
-        <v>218</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
       <c r="H96" s="34"/>
       <c r="I96" s="40"/>
-      <c r="J96" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K96" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
       <c r="L96" s="35"/>
       <c r="M96" s="35"/>
       <c r="N96" s="35"/>
@@ -7750,35 +7432,31 @@
       <c r="U96" s="36"/>
       <c r="V96" s="37"/>
       <c r="W96" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="31">
         <v>127</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D97" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="E97" s="32" t="s">
-        <v>220</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
       <c r="H97" s="34"/>
       <c r="I97" s="40"/>
-      <c r="J97" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K97" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
       <c r="L97" s="35"/>
       <c r="M97" s="35"/>
       <c r="N97" s="35"/>
@@ -7791,35 +7469,31 @@
       <c r="U97" s="36"/>
       <c r="V97" s="37"/>
       <c r="W97" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="31">
         <v>128</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D98" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" s="32" t="s">
         <v>221</v>
-      </c>
-      <c r="E98" s="32" t="s">
-        <v>222</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
       <c r="H98" s="34"/>
       <c r="I98" s="40"/>
-      <c r="J98" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K98" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
       <c r="L98" s="35"/>
       <c r="M98" s="35"/>
       <c r="N98" s="35"/>
@@ -7832,35 +7506,31 @@
       <c r="U98" s="36"/>
       <c r="V98" s="37"/>
       <c r="W98" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="31">
         <v>129</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D99" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="E99" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
       <c r="H99" s="34"/>
       <c r="I99" s="40"/>
-      <c r="J99" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K99" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
       <c r="L99" s="35"/>
       <c r="M99" s="35"/>
       <c r="N99" s="35"/>
@@ -7873,35 +7543,31 @@
       <c r="U99" s="36"/>
       <c r="V99" s="37"/>
       <c r="W99" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="31">
         <v>130</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D100" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
       <c r="H100" s="34"/>
       <c r="I100" s="40"/>
-      <c r="J100" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K100" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
       <c r="L100" s="35"/>
       <c r="M100" s="35"/>
       <c r="N100" s="35"/>
@@ -7914,35 +7580,31 @@
       <c r="U100" s="36"/>
       <c r="V100" s="37"/>
       <c r="W100" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="31">
         <v>131</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D101" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E101" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>228</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
       <c r="H101" s="34"/>
       <c r="I101" s="40"/>
-      <c r="J101" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K101" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
       <c r="L101" s="35"/>
       <c r="M101" s="35"/>
       <c r="N101" s="35"/>
@@ -7955,35 +7617,31 @@
       <c r="U101" s="36"/>
       <c r="V101" s="37"/>
       <c r="W101" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="31">
         <v>132</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D102" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E102" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
       <c r="H102" s="34"/>
       <c r="I102" s="40"/>
-      <c r="J102" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K102" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
       <c r="L102" s="35"/>
       <c r="M102" s="35"/>
       <c r="N102" s="35"/>
@@ -7996,35 +7654,31 @@
       <c r="U102" s="36"/>
       <c r="V102" s="37"/>
       <c r="W102" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="31">
         <v>133</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D103" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E103" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
       <c r="H103" s="34"/>
       <c r="I103" s="40"/>
-      <c r="J103" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K103" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
       <c r="L103" s="35"/>
       <c r="M103" s="35"/>
       <c r="N103" s="35"/>
@@ -8037,35 +7691,31 @@
       <c r="U103" s="36"/>
       <c r="V103" s="37"/>
       <c r="W103" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="31">
         <v>134</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D104" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>234</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
       <c r="I104" s="40"/>
-      <c r="J104" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K104" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
       <c r="L104" s="35"/>
       <c r="M104" s="35"/>
       <c r="N104" s="35"/>
@@ -8078,35 +7728,31 @@
       <c r="U104" s="36"/>
       <c r="V104" s="37"/>
       <c r="W104" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="31">
         <v>135</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D105" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E105" s="32" t="s">
         <v>235</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>236</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
       <c r="H105" s="34"/>
       <c r="I105" s="40"/>
-      <c r="J105" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K105" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
       <c r="L105" s="35"/>
       <c r="M105" s="35"/>
       <c r="N105" s="35"/>
@@ -8119,35 +7765,31 @@
       <c r="U105" s="36"/>
       <c r="V105" s="37"/>
       <c r="W105" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="31">
         <v>136</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D106" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="E106" s="32" t="s">
-        <v>238</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
       <c r="H106" s="34"/>
       <c r="I106" s="40"/>
-      <c r="J106" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K106" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
       <c r="L106" s="35"/>
       <c r="M106" s="35"/>
       <c r="N106" s="35"/>
@@ -8160,35 +7802,31 @@
       <c r="U106" s="36"/>
       <c r="V106" s="37"/>
       <c r="W106" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="31">
         <v>137</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D107" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" s="32" t="s">
         <v>239</v>
-      </c>
-      <c r="E107" s="32" t="s">
-        <v>240</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="34"/>
       <c r="H107" s="34"/>
       <c r="I107" s="40"/>
-      <c r="J107" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K107" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
       <c r="L107" s="35"/>
       <c r="M107" s="35"/>
       <c r="N107" s="35"/>
@@ -8201,35 +7839,31 @@
       <c r="U107" s="36"/>
       <c r="V107" s="37"/>
       <c r="W107" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="31">
         <v>138</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D108" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E108" s="32" t="s">
         <v>241</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>242</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="34"/>
       <c r="H108" s="34"/>
       <c r="I108" s="40"/>
-      <c r="J108" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K108" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
       <c r="L108" s="35"/>
       <c r="M108" s="35"/>
       <c r="N108" s="35"/>
@@ -8242,35 +7876,31 @@
       <c r="U108" s="36"/>
       <c r="V108" s="37"/>
       <c r="W108" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="31">
         <v>139</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D109" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E109" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>244</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
       <c r="H109" s="34"/>
       <c r="I109" s="40"/>
-      <c r="J109" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K109" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J109" s="35"/>
+      <c r="K109" s="35"/>
       <c r="L109" s="35"/>
       <c r="M109" s="35"/>
       <c r="N109" s="35"/>
@@ -8283,35 +7913,31 @@
       <c r="U109" s="36"/>
       <c r="V109" s="37"/>
       <c r="W109" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="31">
         <v>140</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D110" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E110" s="32" t="s">
         <v>245</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>246</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
       <c r="H110" s="34"/>
       <c r="I110" s="40"/>
-      <c r="J110" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K110" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J110" s="35"/>
+      <c r="K110" s="35"/>
       <c r="L110" s="35"/>
       <c r="M110" s="35"/>
       <c r="N110" s="35"/>
@@ -8324,35 +7950,31 @@
       <c r="U110" s="36"/>
       <c r="V110" s="37"/>
       <c r="W110" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="31">
         <v>141</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D111" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E111" s="32" t="s">
         <v>247</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>248</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
       <c r="H111" s="34"/>
       <c r="I111" s="40"/>
-      <c r="J111" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K111" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J111" s="35"/>
+      <c r="K111" s="35"/>
       <c r="L111" s="35"/>
       <c r="M111" s="35"/>
       <c r="N111" s="35"/>
@@ -8365,35 +7987,31 @@
       <c r="U111" s="36"/>
       <c r="V111" s="37"/>
       <c r="W111" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="31">
         <v>142</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D112" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E112" s="32" t="s">
         <v>249</v>
-      </c>
-      <c r="E112" s="32" t="s">
-        <v>250</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
       <c r="H112" s="34"/>
       <c r="I112" s="40"/>
-      <c r="J112" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K112" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J112" s="35"/>
+      <c r="K112" s="35"/>
       <c r="L112" s="35"/>
       <c r="M112" s="35"/>
       <c r="N112" s="35"/>
@@ -8406,35 +8024,31 @@
       <c r="U112" s="36"/>
       <c r="V112" s="37"/>
       <c r="W112" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="31">
         <v>143</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D113" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E113" s="32" t="s">
         <v>251</v>
-      </c>
-      <c r="E113" s="32" t="s">
-        <v>252</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
       <c r="H113" s="34"/>
       <c r="I113" s="40"/>
-      <c r="J113" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K113" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J113" s="35"/>
+      <c r="K113" s="35"/>
       <c r="L113" s="35"/>
       <c r="M113" s="35"/>
       <c r="N113" s="35"/>
@@ -8447,35 +8061,31 @@
       <c r="U113" s="36"/>
       <c r="V113" s="37"/>
       <c r="W113" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="31">
         <v>144</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D114" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="E114" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="E114" s="32" t="s">
-        <v>254</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
       <c r="H114" s="34"/>
       <c r="I114" s="40"/>
-      <c r="J114" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K114" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J114" s="35"/>
+      <c r="K114" s="35"/>
       <c r="L114" s="35"/>
       <c r="M114" s="35"/>
       <c r="N114" s="35"/>
@@ -8488,35 +8098,31 @@
       <c r="U114" s="36"/>
       <c r="V114" s="37"/>
       <c r="W114" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="31">
         <v>145</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D115" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E115" s="32" t="s">
         <v>255</v>
-      </c>
-      <c r="E115" s="32" t="s">
-        <v>256</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
       <c r="H115" s="34"/>
       <c r="I115" s="40"/>
-      <c r="J115" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K115" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J115" s="35"/>
+      <c r="K115" s="35"/>
       <c r="L115" s="35"/>
       <c r="M115" s="35"/>
       <c r="N115" s="35"/>
@@ -8529,35 +8135,31 @@
       <c r="U115" s="36"/>
       <c r="V115" s="37"/>
       <c r="W115" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="31">
         <v>146</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D116" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="E116" s="32" t="s">
         <v>257</v>
-      </c>
-      <c r="E116" s="32" t="s">
-        <v>258</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
       <c r="H116" s="34"/>
       <c r="I116" s="40"/>
-      <c r="J116" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K116" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J116" s="35"/>
+      <c r="K116" s="35"/>
       <c r="L116" s="35"/>
       <c r="M116" s="35"/>
       <c r="N116" s="35"/>
@@ -8570,7 +8172,7 @@
       <c r="U116" s="36"/>
       <c r="V116" s="37"/>
       <c r="W116" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8578,26 +8180,26 @@
         <v>152</v>
       </c>
       <c r="B117" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D117" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" s="43" t="s">
         <v>259</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>260</v>
       </c>
       <c r="F117" s="44"/>
       <c r="G117" s="45"/>
       <c r="H117" s="44"/>
       <c r="I117" s="46"/>
       <c r="J117" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K117" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L117" s="47"/>
       <c r="M117" s="47"/>
@@ -8611,7 +8213,7 @@
       <c r="U117" s="48"/>
       <c r="V117" s="49"/>
       <c r="W117" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8619,26 +8221,26 @@
         <v>154</v>
       </c>
       <c r="B118" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D118" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="E118" s="43" t="s">
         <v>262</v>
-      </c>
-      <c r="E118" s="43" t="s">
-        <v>263</v>
       </c>
       <c r="F118" s="44"/>
       <c r="G118" s="45"/>
       <c r="H118" s="44"/>
       <c r="I118" s="46"/>
       <c r="J118" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K118" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L118" s="47"/>
       <c r="M118" s="47"/>
@@ -8652,7 +8254,7 @@
       <c r="U118" s="48"/>
       <c r="V118" s="49"/>
       <c r="W118" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8660,26 +8262,26 @@
         <v>155</v>
       </c>
       <c r="B119" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D119" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E119" s="43" t="s">
         <v>264</v>
-      </c>
-      <c r="E119" s="43" t="s">
-        <v>265</v>
       </c>
       <c r="F119" s="44"/>
       <c r="G119" s="45"/>
       <c r="H119" s="44"/>
       <c r="I119" s="46"/>
       <c r="J119" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K119" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L119" s="47"/>
       <c r="M119" s="47"/>
@@ -8693,7 +8295,7 @@
       <c r="U119" s="48"/>
       <c r="V119" s="49"/>
       <c r="W119" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8701,26 +8303,26 @@
         <v>156</v>
       </c>
       <c r="B120" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D120" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" s="43" t="s">
         <v>266</v>
-      </c>
-      <c r="E120" s="43" t="s">
-        <v>267</v>
       </c>
       <c r="F120" s="44"/>
       <c r="G120" s="45"/>
       <c r="H120" s="44"/>
       <c r="I120" s="46"/>
       <c r="J120" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K120" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L120" s="47"/>
       <c r="M120" s="47"/>
@@ -8734,7 +8336,7 @@
       <c r="U120" s="48"/>
       <c r="V120" s="49"/>
       <c r="W120" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8742,26 +8344,26 @@
         <v>158</v>
       </c>
       <c r="B121" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D121" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="E121" s="43" t="s">
         <v>268</v>
-      </c>
-      <c r="E121" s="43" t="s">
-        <v>269</v>
       </c>
       <c r="F121" s="44"/>
       <c r="G121" s="45"/>
       <c r="H121" s="44"/>
       <c r="I121" s="46"/>
       <c r="J121" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K121" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L121" s="47"/>
       <c r="M121" s="47"/>
@@ -8775,7 +8377,7 @@
       <c r="U121" s="48"/>
       <c r="V121" s="49"/>
       <c r="W121" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8783,26 +8385,26 @@
         <v>159</v>
       </c>
       <c r="B122" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D122" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="E122" s="43" t="s">
         <v>271</v>
-      </c>
-      <c r="E122" s="43" t="s">
-        <v>272</v>
       </c>
       <c r="F122" s="44"/>
       <c r="G122" s="45"/>
       <c r="H122" s="44"/>
       <c r="I122" s="46"/>
       <c r="J122" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K122" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L122" s="47"/>
       <c r="M122" s="47"/>
@@ -8816,7 +8418,7 @@
       <c r="U122" s="48"/>
       <c r="V122" s="49"/>
       <c r="W122" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8824,26 +8426,26 @@
         <v>160</v>
       </c>
       <c r="B123" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D123" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E123" s="43" t="s">
         <v>274</v>
-      </c>
-      <c r="E123" s="43" t="s">
-        <v>275</v>
       </c>
       <c r="F123" s="44"/>
       <c r="G123" s="45"/>
       <c r="H123" s="44"/>
       <c r="I123" s="46"/>
       <c r="J123" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K123" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L123" s="47"/>
       <c r="M123" s="47"/>
@@ -8857,7 +8459,7 @@
       <c r="U123" s="48"/>
       <c r="V123" s="49"/>
       <c r="W123" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8865,26 +8467,26 @@
         <v>161</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D124" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="E124" s="43" t="s">
         <v>277</v>
-      </c>
-      <c r="E124" s="43" t="s">
-        <v>278</v>
       </c>
       <c r="F124" s="44"/>
       <c r="G124" s="45"/>
       <c r="H124" s="44"/>
       <c r="I124" s="46"/>
       <c r="J124" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K124" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L124" s="47"/>
       <c r="M124" s="47"/>
@@ -8898,7 +8500,7 @@
       <c r="U124" s="48"/>
       <c r="V124" s="49"/>
       <c r="W124" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8906,26 +8508,26 @@
         <v>162</v>
       </c>
       <c r="B125" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D125" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" s="43" t="s">
         <v>279</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>280</v>
       </c>
       <c r="F125" s="44"/>
       <c r="G125" s="45"/>
       <c r="H125" s="44"/>
       <c r="I125" s="46"/>
       <c r="J125" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K125" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L125" s="47"/>
       <c r="M125" s="47"/>
@@ -8939,7 +8541,7 @@
       <c r="U125" s="48"/>
       <c r="V125" s="49"/>
       <c r="W125" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8947,26 +8549,26 @@
         <v>163</v>
       </c>
       <c r="B126" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D126" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E126" s="43" t="s">
         <v>281</v>
-      </c>
-      <c r="E126" s="43" t="s">
-        <v>282</v>
       </c>
       <c r="F126" s="44"/>
       <c r="G126" s="45"/>
       <c r="H126" s="44"/>
       <c r="I126" s="46"/>
       <c r="J126" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K126" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L126" s="47"/>
       <c r="M126" s="47"/>
@@ -8980,7 +8582,7 @@
       <c r="U126" s="48"/>
       <c r="V126" s="49"/>
       <c r="W126" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8988,26 +8590,26 @@
         <v>164</v>
       </c>
       <c r="B127" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D127" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E127" s="43" t="s">
         <v>283</v>
-      </c>
-      <c r="E127" s="43" t="s">
-        <v>284</v>
       </c>
       <c r="F127" s="44"/>
       <c r="G127" s="45"/>
       <c r="H127" s="44"/>
       <c r="I127" s="46"/>
       <c r="J127" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K127" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L127" s="47"/>
       <c r="M127" s="47"/>
@@ -9021,7 +8623,7 @@
       <c r="U127" s="48"/>
       <c r="V127" s="49"/>
       <c r="W127" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9029,26 +8631,26 @@
         <v>165</v>
       </c>
       <c r="B128" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D128" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E128" s="43" t="s">
         <v>285</v>
-      </c>
-      <c r="E128" s="43" t="s">
-        <v>286</v>
       </c>
       <c r="F128" s="44"/>
       <c r="G128" s="45"/>
       <c r="H128" s="44"/>
       <c r="I128" s="46"/>
       <c r="J128" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K128" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L128" s="47"/>
       <c r="M128" s="47"/>
@@ -9062,7 +8664,7 @@
       <c r="U128" s="48"/>
       <c r="V128" s="49"/>
       <c r="W128" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9070,26 +8672,26 @@
         <v>166</v>
       </c>
       <c r="B129" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D129" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="E129" s="43" t="s">
         <v>287</v>
-      </c>
-      <c r="E129" s="43" t="s">
-        <v>288</v>
       </c>
       <c r="F129" s="44"/>
       <c r="G129" s="45"/>
       <c r="H129" s="44"/>
       <c r="I129" s="46"/>
       <c r="J129" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K129" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L129" s="47"/>
       <c r="M129" s="47"/>
@@ -9103,7 +8705,7 @@
       <c r="U129" s="48"/>
       <c r="V129" s="49"/>
       <c r="W129" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9111,26 +8713,26 @@
         <v>167</v>
       </c>
       <c r="B130" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D130" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" s="43" t="s">
         <v>289</v>
-      </c>
-      <c r="E130" s="43" t="s">
-        <v>290</v>
       </c>
       <c r="F130" s="44"/>
       <c r="G130" s="45"/>
       <c r="H130" s="44"/>
       <c r="I130" s="46"/>
       <c r="J130" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K130" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L130" s="47"/>
       <c r="M130" s="47"/>
@@ -9144,7 +8746,7 @@
       <c r="U130" s="48"/>
       <c r="V130" s="49"/>
       <c r="W130" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9152,26 +8754,26 @@
         <v>168</v>
       </c>
       <c r="B131" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C131" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D131" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="E131" s="43" t="s">
         <v>291</v>
-      </c>
-      <c r="E131" s="43" t="s">
-        <v>292</v>
       </c>
       <c r="F131" s="44"/>
       <c r="G131" s="45"/>
       <c r="H131" s="44"/>
       <c r="I131" s="46"/>
       <c r="J131" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K131" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L131" s="47"/>
       <c r="M131" s="47"/>
@@ -9185,7 +8787,7 @@
       <c r="U131" s="48"/>
       <c r="V131" s="49"/>
       <c r="W131" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:23" s="50" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9193,26 +8795,26 @@
         <v>169</v>
       </c>
       <c r="B132" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D132" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E132" s="43" t="s">
         <v>293</v>
-      </c>
-      <c r="E132" s="43" t="s">
-        <v>294</v>
       </c>
       <c r="F132" s="44"/>
       <c r="G132" s="45"/>
       <c r="H132" s="44"/>
       <c r="I132" s="46"/>
       <c r="J132" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="K132" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="K132" s="47" t="s">
-        <v>65</v>
       </c>
       <c r="L132" s="47"/>
       <c r="M132" s="47"/>
@@ -9226,35 +8828,31 @@
       <c r="U132" s="48"/>
       <c r="V132" s="49"/>
       <c r="W132" s="47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="31">
         <v>175</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D133" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E133" s="32" t="s">
         <v>295</v>
-      </c>
-      <c r="E133" s="32" t="s">
-        <v>296</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="34"/>
       <c r="H133" s="34"/>
       <c r="I133" s="40"/>
-      <c r="J133" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K133" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
       <c r="L133" s="35"/>
       <c r="M133" s="35"/>
       <c r="N133" s="35"/>
@@ -9267,35 +8865,31 @@
       <c r="U133" s="36"/>
       <c r="V133" s="37"/>
       <c r="W133" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="31">
         <v>177</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C134" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D134" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E134" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="E134" s="32" t="s">
-        <v>298</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="34"/>
       <c r="H134" s="34"/>
       <c r="I134" s="40"/>
-      <c r="J134" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K134" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J134" s="35"/>
+      <c r="K134" s="35"/>
       <c r="L134" s="35"/>
       <c r="M134" s="35"/>
       <c r="N134" s="35"/>
@@ -9308,35 +8902,31 @@
       <c r="U134" s="36"/>
       <c r="V134" s="37"/>
       <c r="W134" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="31">
         <v>178</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C135" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D135" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E135" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="E135" s="32" t="s">
-        <v>300</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="34"/>
       <c r="H135" s="34"/>
       <c r="I135" s="40"/>
-      <c r="J135" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K135" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
       <c r="L135" s="35"/>
       <c r="M135" s="35"/>
       <c r="N135" s="35"/>
@@ -9349,35 +8939,31 @@
       <c r="U135" s="36"/>
       <c r="V135" s="37"/>
       <c r="W135" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="31">
         <v>179</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C136" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D136" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E136" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="E136" s="32" t="s">
-        <v>302</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="34"/>
       <c r="H136" s="34"/>
       <c r="I136" s="40"/>
-      <c r="J136" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K136" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
       <c r="L136" s="35"/>
       <c r="M136" s="35"/>
       <c r="N136" s="35"/>
@@ -9390,35 +8976,31 @@
       <c r="U136" s="36"/>
       <c r="V136" s="37"/>
       <c r="W136" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="31">
         <v>180</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C137" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D137" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="E137" s="32" t="s">
         <v>303</v>
-      </c>
-      <c r="E137" s="32" t="s">
-        <v>304</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="34"/>
       <c r="H137" s="34"/>
       <c r="I137" s="40"/>
-      <c r="J137" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K137" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
       <c r="L137" s="35"/>
       <c r="M137" s="35"/>
       <c r="N137" s="35"/>
@@ -9431,35 +9013,31 @@
       <c r="U137" s="36"/>
       <c r="V137" s="37"/>
       <c r="W137" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="31">
         <v>181</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C138" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D138" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E138" s="32" t="s">
         <v>305</v>
-      </c>
-      <c r="E138" s="32" t="s">
-        <v>306</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="34"/>
       <c r="H138" s="34"/>
       <c r="I138" s="40"/>
-      <c r="J138" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K138" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
       <c r="L138" s="35"/>
       <c r="M138" s="35"/>
       <c r="N138" s="35"/>
@@ -9472,35 +9050,31 @@
       <c r="U138" s="36"/>
       <c r="V138" s="37"/>
       <c r="W138" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="31">
         <v>182</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C139" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D139" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E139" s="32" t="s">
         <v>307</v>
-      </c>
-      <c r="E139" s="32" t="s">
-        <v>308</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="34"/>
       <c r="H139" s="34"/>
       <c r="I139" s="40"/>
-      <c r="J139" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K139" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
       <c r="L139" s="35"/>
       <c r="M139" s="35"/>
       <c r="N139" s="35"/>
@@ -9513,35 +9087,31 @@
       <c r="U139" s="36"/>
       <c r="V139" s="37"/>
       <c r="W139" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="31">
         <v>183</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D140" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E140" s="32" t="s">
         <v>309</v>
-      </c>
-      <c r="E140" s="32" t="s">
-        <v>310</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="34"/>
       <c r="H140" s="34"/>
       <c r="I140" s="40"/>
-      <c r="J140" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K140" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
       <c r="L140" s="35"/>
       <c r="M140" s="35"/>
       <c r="N140" s="35"/>
@@ -9554,35 +9124,31 @@
       <c r="U140" s="36"/>
       <c r="V140" s="37"/>
       <c r="W140" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="31">
         <v>184</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D141" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E141" s="32" t="s">
         <v>311</v>
-      </c>
-      <c r="E141" s="32" t="s">
-        <v>312</v>
       </c>
       <c r="F141" s="34"/>
       <c r="G141" s="34"/>
       <c r="H141" s="34"/>
       <c r="I141" s="40"/>
-      <c r="J141" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K141" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
       <c r="L141" s="35"/>
       <c r="M141" s="35"/>
       <c r="N141" s="35"/>
@@ -9595,35 +9161,31 @@
       <c r="U141" s="36"/>
       <c r="V141" s="37"/>
       <c r="W141" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="31">
         <v>185</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C142" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D142" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E142" s="32" t="s">
         <v>313</v>
-      </c>
-      <c r="E142" s="32" t="s">
-        <v>314</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="34"/>
       <c r="H142" s="34"/>
       <c r="I142" s="40"/>
-      <c r="J142" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K142" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
       <c r="L142" s="35"/>
       <c r="M142" s="35"/>
       <c r="N142" s="35"/>
@@ -9636,35 +9198,31 @@
       <c r="U142" s="36"/>
       <c r="V142" s="37"/>
       <c r="W142" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="31">
         <v>186</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D143" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E143" s="32" t="s">
         <v>315</v>
-      </c>
-      <c r="E143" s="32" t="s">
-        <v>316</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="34"/>
       <c r="H143" s="34"/>
       <c r="I143" s="40"/>
-      <c r="J143" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K143" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
       <c r="L143" s="35"/>
       <c r="M143" s="35"/>
       <c r="N143" s="35"/>
@@ -9677,35 +9235,31 @@
       <c r="U143" s="36"/>
       <c r="V143" s="37"/>
       <c r="W143" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="31">
         <v>187</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D144" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="E144" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="E144" s="32" t="s">
-        <v>318</v>
       </c>
       <c r="F144" s="34"/>
       <c r="G144" s="34"/>
       <c r="H144" s="34"/>
       <c r="I144" s="40"/>
-      <c r="J144" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K144" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J144" s="35"/>
+      <c r="K144" s="35"/>
       <c r="L144" s="35"/>
       <c r="M144" s="35"/>
       <c r="N144" s="35"/>
@@ -9718,35 +9272,31 @@
       <c r="U144" s="36"/>
       <c r="V144" s="37"/>
       <c r="W144" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="31">
         <v>188</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C145" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D145" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E145" s="32" t="s">
         <v>319</v>
-      </c>
-      <c r="E145" s="32" t="s">
-        <v>320</v>
       </c>
       <c r="F145" s="34"/>
       <c r="G145" s="34"/>
       <c r="H145" s="34"/>
       <c r="I145" s="40"/>
-      <c r="J145" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K145" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J145" s="35"/>
+      <c r="K145" s="35"/>
       <c r="L145" s="35"/>
       <c r="M145" s="35"/>
       <c r="N145" s="35"/>
@@ -9759,35 +9309,31 @@
       <c r="U145" s="36"/>
       <c r="V145" s="37"/>
       <c r="W145" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="31">
         <v>189</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C146" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D146" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="E146" s="32" t="s">
         <v>321</v>
-      </c>
-      <c r="E146" s="32" t="s">
-        <v>322</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="34"/>
       <c r="H146" s="34"/>
       <c r="I146" s="40"/>
-      <c r="J146" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K146" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J146" s="35"/>
+      <c r="K146" s="35"/>
       <c r="L146" s="35"/>
       <c r="M146" s="35"/>
       <c r="N146" s="35"/>
@@ -9800,35 +9346,31 @@
       <c r="U146" s="36"/>
       <c r="V146" s="37"/>
       <c r="W146" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="31">
         <v>190</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C147" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D147" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E147" s="32" t="s">
         <v>323</v>
-      </c>
-      <c r="E147" s="32" t="s">
-        <v>324</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="34"/>
       <c r="H147" s="34"/>
       <c r="I147" s="40"/>
-      <c r="J147" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K147" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J147" s="35"/>
+      <c r="K147" s="35"/>
       <c r="L147" s="35"/>
       <c r="M147" s="35"/>
       <c r="N147" s="35"/>
@@ -9841,35 +9383,31 @@
       <c r="U147" s="36"/>
       <c r="V147" s="37"/>
       <c r="W147" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="31">
         <v>191</v>
       </c>
       <c r="B148" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C148" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D148" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="E148" s="32" t="s">
         <v>325</v>
-      </c>
-      <c r="E148" s="32" t="s">
-        <v>326</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="34"/>
       <c r="H148" s="34"/>
       <c r="I148" s="40"/>
-      <c r="J148" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K148" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J148" s="35"/>
+      <c r="K148" s="35"/>
       <c r="L148" s="35"/>
       <c r="M148" s="35"/>
       <c r="N148" s="35"/>
@@ -9882,35 +9420,31 @@
       <c r="U148" s="36"/>
       <c r="V148" s="37"/>
       <c r="W148" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="31">
         <v>376</v>
       </c>
       <c r="B149" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C149" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C149" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D149" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="E149" s="32" t="s">
         <v>327</v>
-      </c>
-      <c r="E149" s="32" t="s">
-        <v>328</v>
       </c>
       <c r="F149" s="34"/>
       <c r="G149" s="34"/>
       <c r="H149" s="34"/>
       <c r="I149" s="40"/>
-      <c r="J149" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K149" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J149" s="35"/>
+      <c r="K149" s="35"/>
       <c r="L149" s="35"/>
       <c r="M149" s="35"/>
       <c r="N149" s="35"/>
@@ -9923,35 +9457,31 @@
       <c r="U149" s="36"/>
       <c r="V149" s="37"/>
       <c r="W149" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="31">
         <v>417</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C150" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D150" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="E150" s="32" t="s">
         <v>330</v>
-      </c>
-      <c r="E150" s="32" t="s">
-        <v>331</v>
       </c>
       <c r="F150" s="34"/>
       <c r="G150" s="34"/>
       <c r="H150" s="34"/>
       <c r="I150" s="40"/>
-      <c r="J150" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K150" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J150" s="35"/>
+      <c r="K150" s="35"/>
       <c r="L150" s="35"/>
       <c r="M150" s="35"/>
       <c r="N150" s="35"/>
@@ -9964,35 +9494,31 @@
       <c r="U150" s="36"/>
       <c r="V150" s="37"/>
       <c r="W150" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="31">
         <v>418</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C151" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D151" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E151" s="32" t="s">
         <v>332</v>
-      </c>
-      <c r="E151" s="32" t="s">
-        <v>333</v>
       </c>
       <c r="F151" s="34"/>
       <c r="G151" s="34"/>
       <c r="H151" s="34"/>
       <c r="I151" s="40"/>
-      <c r="J151" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K151" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J151" s="35"/>
+      <c r="K151" s="35"/>
       <c r="L151" s="35"/>
       <c r="M151" s="35"/>
       <c r="N151" s="35"/>
@@ -10005,35 +9531,31 @@
       <c r="U151" s="36"/>
       <c r="V151" s="37"/>
       <c r="W151" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="31">
         <v>419</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D152" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="E152" s="32" t="s">
         <v>334</v>
-      </c>
-      <c r="E152" s="32" t="s">
-        <v>335</v>
       </c>
       <c r="F152" s="34"/>
       <c r="G152" s="34"/>
       <c r="H152" s="34"/>
       <c r="I152" s="40"/>
-      <c r="J152" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K152" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J152" s="35"/>
+      <c r="K152" s="35"/>
       <c r="L152" s="35"/>
       <c r="M152" s="35"/>
       <c r="N152" s="35"/>
@@ -10046,35 +9568,31 @@
       <c r="U152" s="36"/>
       <c r="V152" s="37"/>
       <c r="W152" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="31">
         <v>423</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E153" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F153" s="34"/>
       <c r="G153" s="34"/>
       <c r="H153" s="34"/>
       <c r="I153" s="40"/>
-      <c r="J153" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K153" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J153" s="35"/>
+      <c r="K153" s="35"/>
       <c r="L153" s="35"/>
       <c r="M153" s="35"/>
       <c r="N153" s="35"/>
@@ -10087,35 +9605,31 @@
       <c r="U153" s="36"/>
       <c r="V153" s="37"/>
       <c r="W153" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="31">
         <v>424</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E154" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F154" s="34"/>
       <c r="G154" s="34"/>
       <c r="H154" s="34"/>
       <c r="I154" s="40"/>
-      <c r="J154" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K154" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J154" s="35"/>
+      <c r="K154" s="35"/>
       <c r="L154" s="35"/>
       <c r="M154" s="35"/>
       <c r="N154" s="35"/>
@@ -10128,35 +9642,31 @@
       <c r="U154" s="36"/>
       <c r="V154" s="37"/>
       <c r="W154" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="31">
         <v>425</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D155" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E155" s="32" t="s">
         <v>338</v>
-      </c>
-      <c r="E155" s="32" t="s">
-        <v>339</v>
       </c>
       <c r="F155" s="34"/>
       <c r="G155" s="34"/>
       <c r="H155" s="34"/>
       <c r="I155" s="40"/>
-      <c r="J155" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K155" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J155" s="35"/>
+      <c r="K155" s="35"/>
       <c r="L155" s="35"/>
       <c r="M155" s="35"/>
       <c r="N155" s="35"/>
@@ -10169,35 +9679,31 @@
       <c r="U155" s="36"/>
       <c r="V155" s="37"/>
       <c r="W155" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="31">
         <v>432</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D156" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E156" s="32" t="s">
         <v>340</v>
-      </c>
-      <c r="E156" s="32" t="s">
-        <v>341</v>
       </c>
       <c r="F156" s="34"/>
       <c r="G156" s="34"/>
       <c r="H156" s="34"/>
       <c r="I156" s="40"/>
-      <c r="J156" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K156" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J156" s="35"/>
+      <c r="K156" s="35"/>
       <c r="L156" s="35"/>
       <c r="M156" s="35"/>
       <c r="N156" s="35"/>
@@ -10210,35 +9716,31 @@
       <c r="U156" s="36"/>
       <c r="V156" s="37"/>
       <c r="W156" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="31">
         <v>433</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D157" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="E157" s="32" t="s">
         <v>342</v>
-      </c>
-      <c r="E157" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="F157" s="34"/>
       <c r="G157" s="34"/>
       <c r="H157" s="34"/>
       <c r="I157" s="40"/>
-      <c r="J157" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K157" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J157" s="35"/>
+      <c r="K157" s="35"/>
       <c r="L157" s="35"/>
       <c r="M157" s="35"/>
       <c r="N157" s="35"/>
@@ -10251,35 +9753,31 @@
       <c r="U157" s="36"/>
       <c r="V157" s="37"/>
       <c r="W157" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="31">
         <v>434</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C158" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D158" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E158" s="32" t="s">
         <v>344</v>
-      </c>
-      <c r="E158" s="32" t="s">
-        <v>345</v>
       </c>
       <c r="F158" s="34"/>
       <c r="G158" s="34"/>
       <c r="H158" s="34"/>
       <c r="I158" s="40"/>
-      <c r="J158" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K158" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J158" s="35"/>
+      <c r="K158" s="35"/>
       <c r="L158" s="35"/>
       <c r="M158" s="35"/>
       <c r="N158" s="35"/>
@@ -10292,35 +9790,31 @@
       <c r="U158" s="36"/>
       <c r="V158" s="37"/>
       <c r="W158" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="31">
         <v>435</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C159" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D159" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E159" s="32" t="s">
         <v>346</v>
-      </c>
-      <c r="E159" s="32" t="s">
-        <v>347</v>
       </c>
       <c r="F159" s="34"/>
       <c r="G159" s="34"/>
       <c r="H159" s="34"/>
       <c r="I159" s="40"/>
-      <c r="J159" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K159" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J159" s="35"/>
+      <c r="K159" s="35"/>
       <c r="L159" s="35"/>
       <c r="M159" s="35"/>
       <c r="N159" s="35"/>
@@ -10333,35 +9827,31 @@
       <c r="U159" s="36"/>
       <c r="V159" s="37"/>
       <c r="W159" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="31">
         <v>437</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D160" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="E160" s="32" t="s">
         <v>348</v>
-      </c>
-      <c r="E160" s="32" t="s">
-        <v>349</v>
       </c>
       <c r="F160" s="34"/>
       <c r="G160" s="34"/>
       <c r="H160" s="34"/>
       <c r="I160" s="40"/>
-      <c r="J160" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K160" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J160" s="35"/>
+      <c r="K160" s="35"/>
       <c r="L160" s="35"/>
       <c r="M160" s="35"/>
       <c r="N160" s="35"/>
@@ -10374,35 +9864,31 @@
       <c r="U160" s="36"/>
       <c r="V160" s="37"/>
       <c r="W160" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="31">
         <v>438</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D161" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="E161" s="32" t="s">
         <v>350</v>
-      </c>
-      <c r="E161" s="32" t="s">
-        <v>351</v>
       </c>
       <c r="F161" s="34"/>
       <c r="G161" s="34"/>
       <c r="H161" s="34"/>
       <c r="I161" s="40"/>
-      <c r="J161" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K161" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J161" s="35"/>
+      <c r="K161" s="35"/>
       <c r="L161" s="35"/>
       <c r="M161" s="35"/>
       <c r="N161" s="35"/>
@@ -10415,35 +9901,31 @@
       <c r="U161" s="36"/>
       <c r="V161" s="37"/>
       <c r="W161" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="31">
         <v>440</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D162" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="E162" s="32" t="s">
         <v>352</v>
-      </c>
-      <c r="E162" s="32" t="s">
-        <v>353</v>
       </c>
       <c r="F162" s="34"/>
       <c r="G162" s="34"/>
       <c r="H162" s="34"/>
       <c r="I162" s="40"/>
-      <c r="J162" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K162" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J162" s="35"/>
+      <c r="K162" s="35"/>
       <c r="L162" s="35"/>
       <c r="M162" s="35"/>
       <c r="N162" s="35"/>
@@ -10456,35 +9938,31 @@
       <c r="U162" s="36"/>
       <c r="V162" s="37"/>
       <c r="W162" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="31">
         <v>441</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D163" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E163" s="32" t="s">
         <v>354</v>
-      </c>
-      <c r="E163" s="32" t="s">
-        <v>355</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
       <c r="H163" s="34"/>
       <c r="I163" s="40"/>
-      <c r="J163" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K163" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J163" s="35"/>
+      <c r="K163" s="35"/>
       <c r="L163" s="35"/>
       <c r="M163" s="35"/>
       <c r="N163" s="35"/>
@@ -10497,35 +9975,31 @@
       <c r="U163" s="36"/>
       <c r="V163" s="37"/>
       <c r="W163" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="31">
         <v>442</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D164" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="E164" s="32" t="s">
         <v>356</v>
-      </c>
-      <c r="E164" s="32" t="s">
-        <v>357</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
       <c r="H164" s="34"/>
       <c r="I164" s="40"/>
-      <c r="J164" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K164" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J164" s="35"/>
+      <c r="K164" s="35"/>
       <c r="L164" s="35"/>
       <c r="M164" s="35"/>
       <c r="N164" s="35"/>
@@ -10538,35 +10012,31 @@
       <c r="U164" s="36"/>
       <c r="V164" s="37"/>
       <c r="W164" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="31">
         <v>443</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D165" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="E165" s="32" t="s">
         <v>358</v>
-      </c>
-      <c r="E165" s="32" t="s">
-        <v>359</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
       <c r="H165" s="34"/>
       <c r="I165" s="40"/>
-      <c r="J165" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K165" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J165" s="35"/>
+      <c r="K165" s="35"/>
       <c r="L165" s="35"/>
       <c r="M165" s="35"/>
       <c r="N165" s="35"/>
@@ -10579,35 +10049,31 @@
       <c r="U165" s="36"/>
       <c r="V165" s="37"/>
       <c r="W165" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="31">
         <v>444</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C166" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D166" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="E166" s="32" t="s">
         <v>360</v>
-      </c>
-      <c r="E166" s="32" t="s">
-        <v>361</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
       <c r="H166" s="34"/>
       <c r="I166" s="40"/>
-      <c r="J166" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K166" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J166" s="35"/>
+      <c r="K166" s="35"/>
       <c r="L166" s="35"/>
       <c r="M166" s="35"/>
       <c r="N166" s="35"/>
@@ -10620,35 +10086,31 @@
       <c r="U166" s="36"/>
       <c r="V166" s="37"/>
       <c r="W166" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="31">
         <v>445</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C167" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D167" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E167" s="32" t="s">
         <v>362</v>
-      </c>
-      <c r="E167" s="32" t="s">
-        <v>363</v>
       </c>
       <c r="F167" s="34"/>
       <c r="G167" s="34"/>
       <c r="H167" s="34"/>
       <c r="I167" s="40"/>
-      <c r="J167" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K167" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J167" s="35"/>
+      <c r="K167" s="35"/>
       <c r="L167" s="35"/>
       <c r="M167" s="35"/>
       <c r="N167" s="35"/>
@@ -10661,35 +10123,31 @@
       <c r="U167" s="36"/>
       <c r="V167" s="37"/>
       <c r="W167" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="31">
         <v>446</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D168" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E168" s="32" t="s">
         <v>364</v>
-      </c>
-      <c r="E168" s="32" t="s">
-        <v>365</v>
       </c>
       <c r="F168" s="34"/>
       <c r="G168" s="34"/>
       <c r="H168" s="34"/>
       <c r="I168" s="40"/>
-      <c r="J168" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K168" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J168" s="35"/>
+      <c r="K168" s="35"/>
       <c r="L168" s="35"/>
       <c r="M168" s="35"/>
       <c r="N168" s="35"/>
@@ -10702,35 +10160,31 @@
       <c r="U168" s="36"/>
       <c r="V168" s="37"/>
       <c r="W168" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="31">
         <v>447</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D169" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="E169" s="32" t="s">
         <v>366</v>
-      </c>
-      <c r="E169" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
       <c r="H169" s="34"/>
       <c r="I169" s="40"/>
-      <c r="J169" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K169" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J169" s="35"/>
+      <c r="K169" s="35"/>
       <c r="L169" s="35"/>
       <c r="M169" s="35"/>
       <c r="N169" s="35"/>
@@ -10743,7 +10197,7 @@
       <c r="U169" s="36"/>
       <c r="V169" s="37"/>
       <c r="W169" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:23" s="60" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
@@ -10751,31 +10205,31 @@
         <v>448</v>
       </c>
       <c r="B170" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C170" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D170" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="E170" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="E170" s="53" t="s">
+      <c r="F170" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G170" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="F170" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G170" s="55" t="s">
+      <c r="H170" s="54" t="s">
         <v>370</v>
       </c>
-      <c r="H170" s="54" t="s">
+      <c r="I170" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="I170" s="56" t="s">
-        <v>372</v>
-      </c>
       <c r="J170" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K170" s="57"/>
       <c r="L170" s="57"/>
@@ -10787,12 +10241,12 @@
       <c r="R170" s="57"/>
       <c r="S170" s="57"/>
       <c r="T170" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U170" s="58"/>
       <c r="V170" s="59"/>
       <c r="W170" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:23" s="50" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
@@ -10800,26 +10254,26 @@
         <v>449</v>
       </c>
       <c r="B171" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D171" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="E171" s="43" t="s">
         <v>373</v>
-      </c>
-      <c r="E171" s="43" t="s">
-        <v>374</v>
       </c>
       <c r="F171" s="44"/>
       <c r="G171" s="45"/>
       <c r="H171" s="44"/>
       <c r="I171" s="46"/>
       <c r="J171" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K171" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L171" s="47"/>
       <c r="M171" s="47"/>
@@ -10833,35 +10287,31 @@
       <c r="U171" s="48"/>
       <c r="V171" s="49"/>
       <c r="W171" s="47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="31">
         <v>450</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C172" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D172" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E172" s="32" t="s">
         <v>375</v>
-      </c>
-      <c r="E172" s="32" t="s">
-        <v>376</v>
       </c>
       <c r="F172" s="34"/>
       <c r="G172" s="34"/>
       <c r="H172" s="34"/>
       <c r="I172" s="40"/>
-      <c r="J172" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K172" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J172" s="35"/>
+      <c r="K172" s="35"/>
       <c r="L172" s="35"/>
       <c r="M172" s="35"/>
       <c r="N172" s="35"/>
@@ -10874,35 +10324,31 @@
       <c r="U172" s="36"/>
       <c r="V172" s="37"/>
       <c r="W172" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="31">
         <v>451</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D173" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E173" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="E173" s="32" t="s">
-        <v>378</v>
       </c>
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
       <c r="H173" s="34"/>
       <c r="I173" s="40"/>
-      <c r="J173" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K173" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J173" s="35"/>
+      <c r="K173" s="35"/>
       <c r="L173" s="35"/>
       <c r="M173" s="35"/>
       <c r="N173" s="35"/>
@@ -10915,35 +10361,31 @@
       <c r="U173" s="36"/>
       <c r="V173" s="37"/>
       <c r="W173" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="31">
         <v>452</v>
       </c>
       <c r="B174" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C174" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C174" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D174" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E174" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="E174" s="32" t="s">
-        <v>380</v>
       </c>
       <c r="F174" s="34"/>
       <c r="G174" s="34"/>
       <c r="H174" s="34"/>
       <c r="I174" s="40"/>
-      <c r="J174" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K174" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J174" s="35"/>
+      <c r="K174" s="35"/>
       <c r="L174" s="35"/>
       <c r="M174" s="35"/>
       <c r="N174" s="35"/>
@@ -10956,35 +10398,31 @@
       <c r="U174" s="36"/>
       <c r="V174" s="37"/>
       <c r="W174" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="31">
         <v>454</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C175" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D175" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="E175" s="32" t="s">
         <v>381</v>
-      </c>
-      <c r="E175" s="32" t="s">
-        <v>382</v>
       </c>
       <c r="F175" s="34"/>
       <c r="G175" s="34"/>
       <c r="H175" s="34"/>
       <c r="I175" s="40"/>
-      <c r="J175" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K175" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J175" s="35"/>
+      <c r="K175" s="35"/>
       <c r="L175" s="35"/>
       <c r="M175" s="35"/>
       <c r="N175" s="35"/>
@@ -10997,35 +10435,31 @@
       <c r="U175" s="36"/>
       <c r="V175" s="37"/>
       <c r="W175" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="31">
         <v>455</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D176" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E176" s="32" t="s">
         <v>383</v>
-      </c>
-      <c r="E176" s="32" t="s">
-        <v>384</v>
       </c>
       <c r="F176" s="34"/>
       <c r="G176" s="34"/>
       <c r="H176" s="34"/>
       <c r="I176" s="40"/>
-      <c r="J176" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K176" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J176" s="35"/>
+      <c r="K176" s="35"/>
       <c r="L176" s="35"/>
       <c r="M176" s="35"/>
       <c r="N176" s="35"/>
@@ -11038,35 +10472,31 @@
       <c r="U176" s="36"/>
       <c r="V176" s="37"/>
       <c r="W176" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="31">
         <v>456</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D177" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E177" s="32" t="s">
         <v>385</v>
-      </c>
-      <c r="E177" s="32" t="s">
-        <v>386</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="34"/>
       <c r="H177" s="34"/>
       <c r="I177" s="40"/>
-      <c r="J177" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K177" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J177" s="35"/>
+      <c r="K177" s="35"/>
       <c r="L177" s="35"/>
       <c r="M177" s="35"/>
       <c r="N177" s="35"/>
@@ -11079,35 +10509,31 @@
       <c r="U177" s="36"/>
       <c r="V177" s="37"/>
       <c r="W177" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="178" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="31">
         <v>457</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C178" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D178" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E178" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="E178" s="32" t="s">
-        <v>388</v>
       </c>
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
       <c r="H178" s="34"/>
       <c r="I178" s="40"/>
-      <c r="J178" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K178" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J178" s="35"/>
+      <c r="K178" s="35"/>
       <c r="L178" s="35"/>
       <c r="M178" s="35"/>
       <c r="N178" s="35"/>
@@ -11120,35 +10546,31 @@
       <c r="U178" s="36"/>
       <c r="V178" s="37"/>
       <c r="W178" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="31">
         <v>458</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D179" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E179" s="32" t="s">
         <v>389</v>
-      </c>
-      <c r="E179" s="32" t="s">
-        <v>390</v>
       </c>
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
       <c r="H179" s="34"/>
       <c r="I179" s="40"/>
-      <c r="J179" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K179" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J179" s="35"/>
+      <c r="K179" s="35"/>
       <c r="L179" s="35"/>
       <c r="M179" s="35"/>
       <c r="N179" s="35"/>
@@ -11161,35 +10583,31 @@
       <c r="U179" s="36"/>
       <c r="V179" s="37"/>
       <c r="W179" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="31">
         <v>459</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C180" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D180" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="E180" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="E180" s="32" t="s">
-        <v>392</v>
       </c>
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
       <c r="H180" s="34"/>
       <c r="I180" s="40"/>
-      <c r="J180" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K180" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J180" s="35"/>
+      <c r="K180" s="35"/>
       <c r="L180" s="35"/>
       <c r="M180" s="35"/>
       <c r="N180" s="35"/>
@@ -11202,35 +10620,31 @@
       <c r="U180" s="36"/>
       <c r="V180" s="37"/>
       <c r="W180" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23" ht="116" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="31">
         <v>460</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C181" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D181" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E181" s="32" t="s">
         <v>393</v>
-      </c>
-      <c r="E181" s="32" t="s">
-        <v>394</v>
       </c>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
       <c r="H181" s="34"/>
       <c r="I181" s="40"/>
-      <c r="J181" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K181" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J181" s="35"/>
+      <c r="K181" s="35"/>
       <c r="L181" s="35"/>
       <c r="M181" s="35"/>
       <c r="N181" s="35"/>
@@ -11243,7 +10657,7 @@
       <c r="U181" s="36"/>
       <c r="V181" s="37"/>
       <c r="W181" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:23" s="50" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
@@ -11251,26 +10665,26 @@
         <v>461</v>
       </c>
       <c r="B182" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D182" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="E182" s="47" t="s">
         <v>395</v>
-      </c>
-      <c r="E182" s="47" t="s">
-        <v>396</v>
       </c>
       <c r="F182" s="41"/>
       <c r="G182" s="61"/>
       <c r="H182" s="41"/>
       <c r="I182" s="61"/>
       <c r="J182" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K182" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L182" s="41"/>
       <c r="M182" s="41"/>
@@ -11284,35 +10698,31 @@
       <c r="U182" s="41"/>
       <c r="V182" s="41"/>
       <c r="W182" s="41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="183" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="62">
         <v>462</v>
       </c>
       <c r="B183" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C183" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D183" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="E183" s="64" t="s">
         <v>397</v>
-      </c>
-      <c r="E183" s="64" t="s">
-        <v>398</v>
       </c>
       <c r="F183" s="62"/>
       <c r="G183" s="62"/>
       <c r="H183" s="62"/>
       <c r="I183" s="62"/>
-      <c r="J183" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K183" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J183" s="62"/>
+      <c r="K183" s="62"/>
       <c r="L183" s="62"/>
       <c r="M183" s="62"/>
       <c r="N183" s="62"/>
@@ -11325,35 +10735,31 @@
       <c r="U183" s="62"/>
       <c r="V183" s="62"/>
       <c r="W183" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="62">
         <v>463</v>
       </c>
       <c r="B184" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C184" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D184" s="62" t="s">
+        <v>398</v>
+      </c>
+      <c r="E184" s="64" t="s">
         <v>399</v>
-      </c>
-      <c r="E184" s="64" t="s">
-        <v>400</v>
       </c>
       <c r="F184" s="62"/>
       <c r="G184" s="62"/>
       <c r="H184" s="62"/>
       <c r="I184" s="62"/>
-      <c r="J184" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K184" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J184" s="62"/>
+      <c r="K184" s="62"/>
       <c r="L184" s="62"/>
       <c r="M184" s="62"/>
       <c r="N184" s="62"/>
@@ -11366,35 +10772,31 @@
       <c r="U184" s="62"/>
       <c r="V184" s="62"/>
       <c r="W184" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="62">
         <v>464</v>
       </c>
       <c r="B185" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C185" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D185" s="62" t="s">
+        <v>400</v>
+      </c>
+      <c r="E185" s="65" t="s">
         <v>401</v>
-      </c>
-      <c r="E185" s="65" t="s">
-        <v>402</v>
       </c>
       <c r="F185" s="62"/>
       <c r="G185" s="62"/>
       <c r="H185" s="62"/>
       <c r="I185" s="62"/>
-      <c r="J185" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K185" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J185" s="62"/>
+      <c r="K185" s="62"/>
       <c r="L185" s="62"/>
       <c r="M185" s="62"/>
       <c r="N185" s="62"/>
@@ -11407,35 +10809,31 @@
       <c r="U185" s="62"/>
       <c r="V185" s="62"/>
       <c r="W185" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="62">
         <v>465</v>
       </c>
       <c r="B186" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C186" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D186" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="E186" s="65" t="s">
         <v>403</v>
-      </c>
-      <c r="E186" s="65" t="s">
-        <v>404</v>
       </c>
       <c r="F186" s="62"/>
       <c r="G186" s="62"/>
       <c r="H186" s="62"/>
       <c r="I186" s="62"/>
-      <c r="J186" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K186" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J186" s="62"/>
+      <c r="K186" s="62"/>
       <c r="L186" s="62"/>
       <c r="M186" s="62"/>
       <c r="N186" s="62"/>
@@ -11448,35 +10846,31 @@
       <c r="U186" s="62"/>
       <c r="V186" s="62"/>
       <c r="W186" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="62">
         <v>466</v>
       </c>
       <c r="B187" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C187" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C187" s="63" t="s">
-        <v>48</v>
-      </c>
       <c r="D187" s="62" t="s">
+        <v>404</v>
+      </c>
+      <c r="E187" s="65" t="s">
         <v>405</v>
-      </c>
-      <c r="E187" s="65" t="s">
-        <v>406</v>
       </c>
       <c r="F187" s="62"/>
       <c r="G187" s="62"/>
       <c r="H187" s="62"/>
       <c r="I187" s="62"/>
-      <c r="J187" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K187" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J187" s="62"/>
+      <c r="K187" s="62"/>
       <c r="L187" s="62"/>
       <c r="M187" s="62"/>
       <c r="N187" s="62"/>
@@ -11489,35 +10883,31 @@
       <c r="U187" s="62"/>
       <c r="V187" s="62"/>
       <c r="W187" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="62">
         <v>467</v>
       </c>
       <c r="B188" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C188" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D188" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="E188" s="64" t="s">
         <v>407</v>
-      </c>
-      <c r="E188" s="64" t="s">
-        <v>408</v>
       </c>
       <c r="F188" s="62"/>
       <c r="G188" s="62"/>
       <c r="H188" s="62"/>
       <c r="I188" s="62"/>
-      <c r="J188" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K188" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J188" s="62"/>
+      <c r="K188" s="62"/>
       <c r="L188" s="62"/>
       <c r="M188" s="62"/>
       <c r="N188" s="62"/>
@@ -11530,34 +10920,34 @@
       <c r="U188" s="62"/>
       <c r="V188" s="62"/>
       <c r="W188" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" s="50" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" s="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="41">
         <v>468</v>
       </c>
       <c r="B189" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D189" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="E189" s="47" t="s">
         <v>409</v>
-      </c>
-      <c r="E189" s="47" t="s">
-        <v>410</v>
       </c>
       <c r="F189" s="41"/>
       <c r="G189" s="61"/>
       <c r="H189" s="41"/>
       <c r="I189" s="61"/>
       <c r="J189" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="K189" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="K189" s="47" t="s">
-        <v>65</v>
       </c>
       <c r="L189" s="41"/>
       <c r="M189" s="41"/>
@@ -11571,35 +10961,31 @@
       <c r="U189" s="41"/>
       <c r="V189" s="41"/>
       <c r="W189" s="41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="62">
         <v>469</v>
       </c>
       <c r="B190" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C190" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D190" s="62" t="s">
+        <v>410</v>
+      </c>
+      <c r="E190" s="64" t="s">
         <v>411</v>
-      </c>
-      <c r="E190" s="64" t="s">
-        <v>412</v>
       </c>
       <c r="F190" s="62"/>
       <c r="G190" s="62"/>
       <c r="H190" s="62"/>
       <c r="I190" s="62"/>
-      <c r="J190" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K190" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J190" s="62"/>
+      <c r="K190" s="62"/>
       <c r="L190" s="62"/>
       <c r="M190" s="62"/>
       <c r="N190" s="62"/>
@@ -11612,35 +10998,31 @@
       <c r="U190" s="62"/>
       <c r="V190" s="62"/>
       <c r="W190" s="62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="62">
         <v>470</v>
       </c>
       <c r="B191" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C191" s="63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D191" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="E191" s="64" t="s">
         <v>413</v>
-      </c>
-      <c r="E191" s="64" t="s">
-        <v>414</v>
       </c>
       <c r="F191" s="62"/>
       <c r="G191" s="62"/>
       <c r="H191" s="62"/>
       <c r="I191" s="62"/>
-      <c r="J191" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="K191" s="64" t="s">
-        <v>270</v>
-      </c>
+      <c r="J191" s="62"/>
+      <c r="K191" s="62"/>
       <c r="L191" s="62"/>
       <c r="M191" s="62"/>
       <c r="N191" s="62"/>
@@ -11653,7 +11035,7 @@
       <c r="U191" s="62"/>
       <c r="V191" s="62"/>
       <c r="W191" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15773,7 +15155,13 @@
     <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A9:W191" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A9:W191" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="RSA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -15796,7 +15184,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>J10:J12 M10:N12 P10:R12 J14 M14:N14 P14:R14 M30:N180 M16:N20 P16:R20 P30:R180 M22:N22 P22:R22 M24:N28 P24:R28 J16:J22 J24:J181 J183:J188 J190:J191</xm:sqref>
+          <xm:sqref>J10:J12 M10:N12 P10:R12 J14 M14:N14 P14:R14 J16:J20 M16:N20 P16:R20 J22 M22:N22 P22:R22 J24:J28 M24:N28 P24:R28 J30:J180 M30:N180 P30:R180</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
@@ -15814,7 +15202,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>K10:K191</xm:sqref>
+          <xm:sqref>K10:K180 K182 K189</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15834,42 +15222,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -15900,162 +15288,162 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="G1" s="67" t="s">
         <v>421</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="D2" s="70" t="s">
         <v>424</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C3" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>426</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C4" s="69">
         <v>446.447</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C5" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>429</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C6" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" s="71" t="s">
         <v>431</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C7" s="69" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="71" t="s">
         <v>433</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C8" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>435</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C9" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="71" t="s">
         <v>437</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="68" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>439</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>423</v>
-      </c>
-      <c r="C10" s="72" t="s">
+      <c r="D10" s="70" t="s">
         <v>440</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C11" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="71" t="s">
         <v>442</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17033,26 +16421,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/GATEWAY/A1#111#LAZIOCREAXX/LazioCrea/SISMED/4.0_RC_0000/report-checklist.xlsx
+++ b/GATEWAY/A1#111#LAZIOCREAXX/LazioCrea/SISMED/4.0_RC_0000/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="446">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1496,16 +1496,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">18/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-18 15:25:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18fa96aaaa335e7717a97f7085035232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.ae0c94b53cb16acc32d836638b8219041b0019cea10426e4772f281a23a93b10.a31cf960d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-06T13:31:28Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aca145abb8d31068367495c614922b9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.ae0c94b53cb16acc32d836638b8219041b0019cea10426e4772f281a23a93b10.c6769c5303^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1750,10 +1747,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-410]dd/mm/yyyy"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -2048,7 +2046,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2265,11 +2263,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2482,7 +2484,7 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3647,11 +3649,11 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F129" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A126" activeCellId="0" sqref="A126"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
+      <selection pane="bottomRight" activeCell="F171" activeCellId="0" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9969,7 +9971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" s="60" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="61" customFormat="true" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="51" t="n">
         <v>448</v>
       </c>
@@ -9985,36 +9987,36 @@
       <c r="E170" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="F170" s="54" t="s">
+      <c r="F170" s="54" t="n">
+        <v>45783</v>
+      </c>
+      <c r="G170" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="G170" s="55" t="s">
+      <c r="H170" s="56" t="s">
         <v>372</v>
       </c>
-      <c r="H170" s="54" t="s">
+      <c r="I170" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="I170" s="56" t="s">
-        <v>374</v>
-      </c>
-      <c r="J170" s="57" t="s">
+      <c r="J170" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="K170" s="57"/>
-      <c r="L170" s="57"/>
-      <c r="M170" s="57"/>
-      <c r="N170" s="57"/>
-      <c r="O170" s="57"/>
-      <c r="P170" s="57"/>
-      <c r="Q170" s="57"/>
-      <c r="R170" s="57"/>
-      <c r="S170" s="57"/>
-      <c r="T170" s="57" t="s">
+      <c r="K170" s="58"/>
+      <c r="L170" s="58"/>
+      <c r="M170" s="58"/>
+      <c r="N170" s="58"/>
+      <c r="O170" s="58"/>
+      <c r="P170" s="58"/>
+      <c r="Q170" s="58"/>
+      <c r="R170" s="58"/>
+      <c r="S170" s="58"/>
+      <c r="T170" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="U170" s="58"/>
-      <c r="V170" s="59"/>
-      <c r="W170" s="57" t="s">
+      <c r="U170" s="59"/>
+      <c r="V170" s="60"/>
+      <c r="W170" s="58" t="s">
         <v>51</v>
       </c>
     </row>
@@ -10029,10 +10031,10 @@
         <v>61</v>
       </c>
       <c r="D171" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="E171" s="43" t="s">
         <v>375</v>
-      </c>
-      <c r="E171" s="43" t="s">
-        <v>376</v>
       </c>
       <c r="F171" s="44"/>
       <c r="G171" s="45"/>
@@ -10070,10 +10072,10 @@
         <v>55</v>
       </c>
       <c r="D172" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E172" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="E172" s="32" t="s">
-        <v>378</v>
       </c>
       <c r="F172" s="34"/>
       <c r="G172" s="34"/>
@@ -10107,10 +10109,10 @@
         <v>55</v>
       </c>
       <c r="D173" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E173" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="E173" s="32" t="s">
-        <v>380</v>
       </c>
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
@@ -10144,10 +10146,10 @@
         <v>48</v>
       </c>
       <c r="D174" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="E174" s="32" t="s">
         <v>381</v>
-      </c>
-      <c r="E174" s="32" t="s">
-        <v>382</v>
       </c>
       <c r="F174" s="34"/>
       <c r="G174" s="34"/>
@@ -10181,10 +10183,10 @@
         <v>70</v>
       </c>
       <c r="D175" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E175" s="32" t="s">
         <v>383</v>
-      </c>
-      <c r="E175" s="32" t="s">
-        <v>384</v>
       </c>
       <c r="F175" s="34"/>
       <c r="G175" s="34"/>
@@ -10218,10 +10220,10 @@
         <v>70</v>
       </c>
       <c r="D176" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E176" s="32" t="s">
         <v>385</v>
-      </c>
-      <c r="E176" s="32" t="s">
-        <v>386</v>
       </c>
       <c r="F176" s="34"/>
       <c r="G176" s="34"/>
@@ -10255,10 +10257,10 @@
         <v>68</v>
       </c>
       <c r="D177" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E177" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="E177" s="32" t="s">
-        <v>388</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="34"/>
@@ -10292,10 +10294,10 @@
         <v>68</v>
       </c>
       <c r="D178" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E178" s="32" t="s">
         <v>389</v>
-      </c>
-      <c r="E178" s="32" t="s">
-        <v>390</v>
       </c>
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
@@ -10329,10 +10331,10 @@
         <v>66</v>
       </c>
       <c r="D179" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="E179" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="E179" s="32" t="s">
-        <v>392</v>
       </c>
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
@@ -10366,10 +10368,10 @@
         <v>66</v>
       </c>
       <c r="D180" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E180" s="32" t="s">
         <v>393</v>
-      </c>
-      <c r="E180" s="32" t="s">
-        <v>394</v>
       </c>
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
@@ -10403,10 +10405,10 @@
         <v>330</v>
       </c>
       <c r="D181" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="E181" s="32" t="s">
         <v>395</v>
-      </c>
-      <c r="E181" s="32" t="s">
-        <v>396</v>
       </c>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
@@ -10440,15 +10442,15 @@
         <v>61</v>
       </c>
       <c r="D182" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="E182" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="E182" s="47" t="s">
-        <v>398</v>
-      </c>
       <c r="F182" s="41"/>
-      <c r="G182" s="61"/>
+      <c r="G182" s="62"/>
       <c r="H182" s="41"/>
-      <c r="I182" s="61"/>
+      <c r="I182" s="62"/>
       <c r="J182" s="41" t="s">
         <v>64</v>
       </c>
@@ -10481,10 +10483,10 @@
         <v>59</v>
       </c>
       <c r="D183" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E183" s="35" t="s">
         <v>399</v>
-      </c>
-      <c r="E183" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="F183" s="31"/>
       <c r="G183" s="31"/>
@@ -10518,10 +10520,10 @@
         <v>70</v>
       </c>
       <c r="D184" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="E184" s="35" t="s">
         <v>401</v>
-      </c>
-      <c r="E184" s="35" t="s">
-        <v>402</v>
       </c>
       <c r="F184" s="31"/>
       <c r="G184" s="31"/>
@@ -10555,10 +10557,10 @@
         <v>66</v>
       </c>
       <c r="D185" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E185" s="32" t="s">
         <v>403</v>
-      </c>
-      <c r="E185" s="32" t="s">
-        <v>404</v>
       </c>
       <c r="F185" s="31"/>
       <c r="G185" s="31"/>
@@ -10592,10 +10594,10 @@
         <v>68</v>
       </c>
       <c r="D186" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E186" s="32" t="s">
         <v>405</v>
-      </c>
-      <c r="E186" s="32" t="s">
-        <v>406</v>
       </c>
       <c r="F186" s="31"/>
       <c r="G186" s="31"/>
@@ -10629,10 +10631,10 @@
         <v>48</v>
       </c>
       <c r="D187" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="E187" s="32" t="s">
         <v>407</v>
-      </c>
-      <c r="E187" s="32" t="s">
-        <v>408</v>
       </c>
       <c r="F187" s="31"/>
       <c r="G187" s="31"/>
@@ -10666,10 +10668,10 @@
         <v>55</v>
       </c>
       <c r="D188" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="E188" s="35" t="s">
         <v>409</v>
-      </c>
-      <c r="E188" s="35" t="s">
-        <v>410</v>
       </c>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
@@ -10703,15 +10705,15 @@
         <v>61</v>
       </c>
       <c r="D189" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="E189" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="E189" s="47" t="s">
-        <v>412</v>
-      </c>
       <c r="F189" s="41"/>
-      <c r="G189" s="61"/>
+      <c r="G189" s="62"/>
       <c r="H189" s="41"/>
-      <c r="I189" s="61"/>
+      <c r="I189" s="62"/>
       <c r="J189" s="41" t="s">
         <v>64</v>
       </c>
@@ -10744,10 +10746,10 @@
         <v>57</v>
       </c>
       <c r="D190" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="E190" s="35" t="s">
         <v>413</v>
-      </c>
-      <c r="E190" s="35" t="s">
-        <v>414</v>
       </c>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
@@ -10781,10 +10783,10 @@
         <v>330</v>
       </c>
       <c r="D191" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="E191" s="35" t="s">
         <v>415</v>
-      </c>
-      <c r="E191" s="35" t="s">
-        <v>416</v>
       </c>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
@@ -14981,7 +14983,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15006,7 +15008,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15016,7 +15018,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -15056,169 +15058,169 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="G1" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="G1" s="63" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="C2" s="66" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="D2" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="66" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="D3" s="66" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="66" t="n">
+        <v>446.447</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C4" s="65" t="n">
-        <v>446.447</v>
-      </c>
-      <c r="D4" s="67" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" s="65" t="s">
+      <c r="D5" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="66" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C6" s="65" t="s">
+      <c r="D6" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="D6" s="67" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C7" s="65" t="s">
+      <c r="D7" s="68" t="s">
         <v>435</v>
       </c>
-      <c r="D7" s="67" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" s="65" t="s">
+      <c r="D8" s="68" t="s">
         <v>437</v>
       </c>
-      <c r="D8" s="67" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="65" t="s">
+      <c r="D9" s="68" t="s">
         <v>439</v>
       </c>
-      <c r="D9" s="67" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="65" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="64" t="s">
+      <c r="B10" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="69" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="D10" s="66" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="66" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="C11" s="65" t="s">
+      <c r="D11" s="68" t="s">
         <v>444</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>445</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="69"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="69"/>
+      <c r="D13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16199,32 +16201,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="70" t="s">
-        <v>446</v>
-      </c>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="71" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#LAZIOCREAXX/LazioCrea/SISMED/4.0_RC_0000/report-checklist.xlsx
+++ b/GATEWAY/A1#111#LAZIOCREAXX/LazioCrea/SISMED/4.0_RC_0000/report-checklist.xlsx
@@ -1496,13 +1496,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-06T13:31:28Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aca145abb8d31068367495c614922b9e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.ae0c94b53cb16acc32d836638b8219041b0019cea10426e4772f281a23a93b10.c6769c5303^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-08T08:06:09Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3fa00f4fa7809ffb81628e5859f3f062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.ae0c94b53cb16acc32d836638b8219041b0019cea10426e4772f281a23a93b10.a41b02941a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -3649,11 +3649,11 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C129" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
-      <selection pane="bottomRight" activeCell="F171" activeCellId="0" sqref="F171"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9988,7 +9988,7 @@
         <v>370</v>
       </c>
       <c r="F170" s="54" t="n">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="G170" s="55" t="s">
         <v>371</v>
